--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H2">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J2">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>8.068597871568</v>
+        <v>674.6187295978406</v>
       </c>
       <c r="R2">
-        <v>72.61738084411199</v>
+        <v>6071.568566380564</v>
       </c>
       <c r="S2">
-        <v>0.001620532455396246</v>
+        <v>0.1842827411425533</v>
       </c>
       <c r="T2">
-        <v>0.001620532455396246</v>
+        <v>0.1842827411425533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H3">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J3">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>7.624058423947333</v>
+        <v>1174.964656059965</v>
       </c>
       <c r="R3">
-        <v>68.616525815526</v>
+        <v>10574.68190453969</v>
       </c>
       <c r="S3">
-        <v>0.00153124921014843</v>
+        <v>0.3209601187524468</v>
       </c>
       <c r="T3">
-        <v>0.00153124921014843</v>
+        <v>0.3209601187524468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07171233333333334</v>
+        <v>11.05178533333333</v>
       </c>
       <c r="H4">
-        <v>0.215137</v>
+        <v>33.155356</v>
       </c>
       <c r="I4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="J4">
-        <v>0.004947717871829782</v>
+        <v>0.9017494976312432</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>8.941929551149112</v>
+        <v>1451.523905973463</v>
       </c>
       <c r="R4">
-        <v>80.477365960342</v>
+        <v>13063.71515376117</v>
       </c>
       <c r="S4">
-        <v>0.001795936206285106</v>
+        <v>0.3965066377362431</v>
       </c>
       <c r="T4">
-        <v>0.001795936206285107</v>
+        <v>0.3965066377362431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H5">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J5">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>1243.473855509184</v>
+        <v>73.503372349496</v>
       </c>
       <c r="R5">
-        <v>11191.26469958265</v>
+        <v>661.5303511454641</v>
       </c>
       <c r="S5">
-        <v>0.2497447229821771</v>
+        <v>0.02007860491490013</v>
       </c>
       <c r="T5">
-        <v>0.2497447229821771</v>
+        <v>0.02007860491490013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H6">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J6">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>1174.964656059965</v>
+        <v>128.018776862832</v>
       </c>
       <c r="R6">
-        <v>10574.68190453969</v>
+        <v>1152.168991765488</v>
       </c>
       <c r="S6">
-        <v>0.2359850359872546</v>
+        <v>0.03497034707598944</v>
       </c>
       <c r="T6">
-        <v>0.2359850359872547</v>
+        <v>0.03497034707598945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.05178533333333</v>
+        <v>1.204152</v>
       </c>
       <c r="H7">
-        <v>33.155356</v>
+        <v>3.612456</v>
       </c>
       <c r="I7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875665</v>
       </c>
       <c r="J7">
-        <v>0.7625064374239614</v>
+        <v>0.09825050236875667</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>1378.065407601988</v>
+        <v>158.151408275552</v>
       </c>
       <c r="R7">
-        <v>12402.58866841789</v>
+        <v>1423.362674479968</v>
       </c>
       <c r="S7">
-        <v>0.2767766784545296</v>
+        <v>0.04320155037786708</v>
       </c>
       <c r="T7">
-        <v>0.2767766784545296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H8">
-        <v>10.111574</v>
-      </c>
-      <c r="I8">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J8">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>112.513392</v>
-      </c>
-      <c r="N8">
-        <v>337.540176</v>
-      </c>
-      <c r="O8">
-        <v>0.3275312977368564</v>
-      </c>
-      <c r="P8">
-        <v>0.3275312977368564</v>
-      </c>
-      <c r="Q8">
-        <v>379.229163066336</v>
-      </c>
-      <c r="R8">
-        <v>3413.062467597024</v>
-      </c>
-      <c r="S8">
-        <v>0.07616604229928295</v>
-      </c>
-      <c r="T8">
-        <v>0.07616604229928296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H9">
-        <v>10.111574</v>
-      </c>
-      <c r="I9">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J9">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>106.314466</v>
-      </c>
-      <c r="N9">
-        <v>318.943398</v>
-      </c>
-      <c r="O9">
-        <v>0.3094859589441663</v>
-      </c>
-      <c r="P9">
-        <v>0.3094859589441664</v>
-      </c>
-      <c r="Q9">
-        <v>358.3355300764946</v>
-      </c>
-      <c r="R9">
-        <v>3225.019770688452</v>
-      </c>
-      <c r="S9">
-        <v>0.07196967374676322</v>
-      </c>
-      <c r="T9">
-        <v>0.07196967374676325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.370524666666667</v>
-      </c>
-      <c r="H10">
-        <v>10.111574</v>
-      </c>
-      <c r="I10">
-        <v>0.2325458447042087</v>
-      </c>
-      <c r="J10">
-        <v>0.2325458447042088</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>124.6916553333333</v>
-      </c>
-      <c r="N10">
-        <v>374.074966</v>
-      </c>
-      <c r="O10">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="P10">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="Q10">
-        <v>420.2763000284983</v>
-      </c>
-      <c r="R10">
-        <v>3782.486700256485</v>
-      </c>
-      <c r="S10">
-        <v>0.08441012865816255</v>
-      </c>
-      <c r="T10">
-        <v>0.08441012865816258</v>
+        <v>0.0432015503778671</v>
       </c>
     </row>
   </sheetData>
